--- a/data_excel/_tematdb_tep_excel_v1.0.0_00051-00100.xlsx
+++ b/data_excel/_tematdb_tep_excel_v1.0.0_00051-00100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD 2023/11 BRes Data tematdb/tematdb v1.1 20240411 tep check brjcsjp/data_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD 2023/11 BRes Data tematdb/tematdb v1.1 20240414 tep check brjcsjp/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_038AF68DB1B0D6C91BA609504C993CAA0E520309" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9C2F39-7B5C-47CD-93D6-CE065F7CBE20}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_038AF68DB1B0D6C91BA609504C993CAA0E520309" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985224C8-0CFF-4440-9D67-C5D38A2EFAEA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="770" firstSheet="29" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="770" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#00051" sheetId="54" r:id="rId1"/>
@@ -730,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,6 +1206,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4465,10 +4477,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -7512,10 +7520,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -7622,10 +7630,10 @@
       <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="43" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -7672,17 +7680,17 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B9" s="3">
-        <v>5.0760899999999998</v>
-      </c>
-      <c r="C9" s="4">
-        <v>41.039099999999998</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.1916200000000003</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-6.5982399999999997</v>
+      <c r="B9" s="82">
+        <v>5.4669897516580699</v>
+      </c>
+      <c r="C9" s="82">
+        <v>40.715025236553799</v>
+      </c>
+      <c r="D9" s="83">
+        <v>4.9461001902346302</v>
+      </c>
+      <c r="E9" s="83">
+        <v>-8.3720930232558199</v>
       </c>
       <c r="F9" s="2">
         <v>8.2812999999999999</v>
@@ -7704,19 +7712,19 @@
       </c>
       <c r="N9" s="30">
         <f>B9</f>
-        <v>5.0760899999999998</v>
+        <v>5.4669897516580699</v>
       </c>
       <c r="O9" s="21">
         <f>1/(C9*10^(-6))</f>
-        <v>24367.006099061629</v>
+        <v>24560.957390791536</v>
       </c>
       <c r="P9" s="30">
         <f>D9</f>
-        <v>4.1916200000000003</v>
+        <v>4.9461001902346302</v>
       </c>
       <c r="Q9" s="17">
         <f>E9*0.000001</f>
-        <v>-6.5982399999999992E-6</v>
+        <v>-8.3720930232558197E-6</v>
       </c>
       <c r="R9" s="30">
         <f>(F9+H9)/2</f>
@@ -7736,21 +7744,21 @@
       </c>
       <c r="V9" s="22">
         <f>((O9*(Q9)^2)/S9)*T9</f>
-        <v>2.9587589854579192E-5</v>
+        <v>4.8013634645931419E-5</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B10" s="3">
-        <v>9.2569599999999994</v>
-      </c>
-      <c r="C10" s="4">
-        <v>40.570700000000002</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7.7844300000000004</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-13.1965</v>
+      <c r="B10" s="82">
+        <v>9.7967557096731905</v>
+      </c>
+      <c r="C10" s="82">
+        <v>40.109323661387499</v>
+      </c>
+      <c r="D10" s="83">
+        <v>7.2289156626505999</v>
+      </c>
+      <c r="E10" s="83">
+        <v>-12.790697674418499</v>
       </c>
       <c r="F10" s="2">
         <v>33.616599999999998</v>
@@ -7772,19 +7780,19 @@
       </c>
       <c r="N10" s="30">
         <f t="shared" ref="N10:N30" si="0">B10</f>
-        <v>9.2569599999999994</v>
+        <v>9.7967557096731905</v>
       </c>
       <c r="O10" s="21">
         <f t="shared" ref="O10:O30" si="1">1/(C10*10^(-6))</f>
-        <v>24648.329952404074</v>
+        <v>24931.858947366931</v>
       </c>
       <c r="P10" s="30">
         <f t="shared" ref="P10:P30" si="2">D10</f>
-        <v>7.7844300000000004</v>
+        <v>7.2289156626505999</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" ref="Q10:Q30" si="3">E10*0.000001</f>
-        <v>-1.31965E-5</v>
+        <v>-1.27906976744185E-5</v>
       </c>
       <c r="R10" s="30">
         <f t="shared" ref="R10:R24" si="4">(F10+H10)/2</f>
@@ -7804,17 +7812,17 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B11" s="2">
-        <v>14.035399999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>40.101900000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12.5749</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-19.794699999999999</v>
+      <c r="B11" s="83">
+        <v>13.6131470410525</v>
+      </c>
+      <c r="C11" s="83">
+        <v>39.8664623948452</v>
+      </c>
+      <c r="D11" s="83">
+        <v>12.5554850982878</v>
+      </c>
+      <c r="E11" s="83">
+        <v>-20.930232558139501</v>
       </c>
       <c r="F11" s="2">
         <v>44.813600000000001</v>
@@ -7836,19 +7844,19 @@
       </c>
       <c r="N11" s="30">
         <f t="shared" si="0"/>
-        <v>14.035399999999999</v>
+        <v>13.6131470410525</v>
       </c>
       <c r="O11" s="21">
         <f t="shared" si="1"/>
-        <v>24936.474331640147</v>
+        <v>25083.740566087992</v>
       </c>
       <c r="P11" s="30">
         <f t="shared" si="2"/>
-        <v>12.5749</v>
+        <v>12.5554850982878</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="3"/>
-        <v>-1.9794699999999999E-5</v>
+        <v>-2.0930232558139498E-5</v>
       </c>
       <c r="R11" s="30">
         <f t="shared" si="4"/>
@@ -7868,17 +7876,17 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B12" s="2">
-        <v>19.413900000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>40.097700000000003</v>
-      </c>
-      <c r="D12" s="2">
-        <v>19.1617</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-29.325500000000002</v>
+      <c r="B12" s="83">
+        <v>18.380192283621199</v>
+      </c>
+      <c r="C12" s="83">
+        <v>39.896020217794202</v>
+      </c>
+      <c r="D12" s="83">
+        <v>18.2625237793278</v>
+      </c>
+      <c r="E12" s="83">
+        <v>-29.302325581395301</v>
       </c>
       <c r="F12" s="2">
         <v>58.356699999999996</v>
@@ -7900,19 +7908,19 @@
       </c>
       <c r="N12" s="30">
         <f t="shared" si="0"/>
-        <v>19.413900000000002</v>
+        <v>18.380192283621199</v>
       </c>
       <c r="O12" s="21">
         <f t="shared" si="1"/>
-        <v>24939.086281756809</v>
+        <v>25065.156738465495</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" si="2"/>
-        <v>19.1617</v>
+        <v>18.2625237793278</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="3"/>
-        <v>-2.9325499999999999E-5</v>
+        <v>-2.9302325581395301E-5</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="4"/>
@@ -7932,17 +7940,17 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B13" s="2">
-        <v>26.586400000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40.3247</v>
-      </c>
-      <c r="D13" s="2">
-        <v>26.347300000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-38.123199999999997</v>
+      <c r="B13" s="83">
+        <v>25.6554987989723</v>
+      </c>
+      <c r="C13" s="83">
+        <v>39.893993670018403</v>
+      </c>
+      <c r="D13" s="83">
+        <v>25.681674064679701</v>
+      </c>
+      <c r="E13" s="83">
+        <v>-37.674418604651102</v>
       </c>
       <c r="F13" s="2">
         <v>68.956299999999999</v>
@@ -7964,19 +7972,19 @@
       </c>
       <c r="N13" s="30">
         <f t="shared" si="0"/>
-        <v>26.586400000000001</v>
+        <v>25.6554987989723</v>
       </c>
       <c r="O13" s="21">
         <f t="shared" si="1"/>
-        <v>24798.696580507731</v>
+        <v>25066.430006267623</v>
       </c>
       <c r="P13" s="30">
         <f t="shared" si="2"/>
-        <v>26.347300000000001</v>
+        <v>25.681674064679701</v>
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="3"/>
-        <v>-3.8123199999999994E-5</v>
+        <v>-3.7674418604651097E-5</v>
       </c>
       <c r="R13" s="30">
         <f t="shared" si="4"/>
@@ -7996,17 +8004,17 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B14" s="2">
-        <v>34.3553</v>
-      </c>
-      <c r="C14" s="1">
-        <v>40.3187</v>
-      </c>
-      <c r="D14" s="2">
-        <v>34.730499999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-46.9208</v>
+      <c r="B14" s="83">
+        <v>34.644430271855299</v>
+      </c>
+      <c r="C14" s="83">
+        <v>40.142186168215297</v>
+      </c>
+      <c r="D14" s="83">
+        <v>34.051997463538299</v>
+      </c>
+      <c r="E14" s="83">
+        <v>-47.674418604651201</v>
       </c>
       <c r="F14" s="2">
         <v>78.386300000000006</v>
@@ -8028,19 +8036,19 @@
       </c>
       <c r="N14" s="30">
         <f t="shared" si="0"/>
-        <v>34.3553</v>
+        <v>34.644430271855299</v>
       </c>
       <c r="O14" s="21">
         <f t="shared" si="1"/>
-        <v>24802.386981723124</v>
+        <v>24911.448415128998</v>
       </c>
       <c r="P14" s="30">
         <f t="shared" si="2"/>
-        <v>34.730499999999999</v>
+        <v>34.051997463538299</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="3"/>
-        <v>-4.69208E-5</v>
+        <v>-4.7674418604651198E-5</v>
       </c>
       <c r="R14" s="30">
         <f t="shared" si="4"/>
@@ -8060,17 +8068,17 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B15" s="2">
-        <v>44.517000000000003</v>
-      </c>
-      <c r="C15" s="1">
-        <v>40.776000000000003</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43.712600000000002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-57.184699999999999</v>
+      <c r="B15" s="83">
+        <v>44.705643935555699</v>
+      </c>
+      <c r="C15" s="83">
+        <v>40.724341819005403</v>
+      </c>
+      <c r="D15" s="83">
+        <v>44.134432466708901</v>
+      </c>
+      <c r="E15" s="83">
+        <v>-58.139534883720899</v>
       </c>
       <c r="F15" s="2">
         <v>93.700999999999993</v>
@@ -8092,19 +8100,19 @@
       </c>
       <c r="N15" s="30">
         <f t="shared" si="0"/>
-        <v>44.517000000000003</v>
+        <v>44.705643935555699</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" si="1"/>
-        <v>24524.229939179906</v>
+        <v>24555.338535473049</v>
       </c>
       <c r="P15" s="30">
         <f t="shared" si="2"/>
-        <v>43.712600000000002</v>
+        <v>44.134432466708901</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="3"/>
-        <v>-5.7184699999999995E-5</v>
+        <v>-5.8139534883720893E-5</v>
       </c>
       <c r="R15" s="30">
         <f t="shared" si="4"/>
@@ -8124,17 +8132,17 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B16" s="2">
-        <v>56.4739</v>
-      </c>
-      <c r="C16" s="1">
-        <v>41.696899999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>56.287399999999998</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-66.715500000000006</v>
+      <c r="B16" s="83">
+        <v>56.481674643714904</v>
+      </c>
+      <c r="C16" s="83">
+        <v>41.723847102930698</v>
+      </c>
+      <c r="D16" s="83">
+        <v>55.928979074191503</v>
+      </c>
+      <c r="E16" s="83">
+        <v>-68.139534883720998</v>
       </c>
       <c r="F16" s="2">
         <v>121.973</v>
@@ -8156,19 +8164,19 @@
       </c>
       <c r="N16" s="30">
         <f t="shared" si="0"/>
-        <v>56.4739</v>
+        <v>56.481674643714904</v>
       </c>
       <c r="O16" s="21">
         <f t="shared" si="1"/>
-        <v>23982.598226726688</v>
+        <v>23967.109205751061</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" si="2"/>
-        <v>56.287399999999998</v>
+        <v>55.928979074191503</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="3"/>
-        <v>-6.6715500000000009E-5</v>
+        <v>-6.8139534883720994E-5</v>
       </c>
       <c r="R16" s="30">
         <f t="shared" si="4"/>
@@ -8188,17 +8196,17 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B17" s="2">
-        <v>69.627200000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42.849499999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>69.461100000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-80.645200000000003</v>
+      <c r="B17" s="83">
+        <v>69.113027721981396</v>
+      </c>
+      <c r="C17" s="83">
+        <v>42.639548675889401</v>
+      </c>
+      <c r="D17" s="83">
+        <v>69.435637285986004</v>
+      </c>
+      <c r="E17" s="83">
+        <v>-82.558139534883693</v>
       </c>
       <c r="F17" s="2">
         <v>135.518</v>
@@ -8220,19 +8228,19 @@
       </c>
       <c r="N17" s="30">
         <f t="shared" si="0"/>
-        <v>69.627200000000002</v>
+        <v>69.113027721981396</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="1"/>
-        <v>23337.49518664162</v>
+        <v>23452.405831055421</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" si="2"/>
-        <v>69.461100000000002</v>
+        <v>69.435637285986004</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="3"/>
-        <v>-8.0645199999999998E-5</v>
+        <v>-8.2558139534883693E-5</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" si="4"/>
@@ -8253,17 +8261,17 @@
       <c r="V17"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B18" s="2">
-        <v>83.380499999999998</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44.466799999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>83.233500000000006</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-96.0411</v>
+      <c r="B18" s="83">
+        <v>83.888349138419102</v>
+      </c>
+      <c r="C18" s="83">
+        <v>44.139611260453101</v>
+      </c>
+      <c r="D18" s="83">
+        <v>83.132530120481903</v>
+      </c>
+      <c r="E18" s="83">
+        <v>-95.348837209302303</v>
       </c>
       <c r="F18" s="2">
         <v>148.471</v>
@@ -8285,19 +8293,19 @@
       </c>
       <c r="N18" s="30">
         <f t="shared" si="0"/>
-        <v>83.380499999999998</v>
+        <v>83.888349138419102</v>
       </c>
       <c r="O18" s="21">
         <f t="shared" si="1"/>
-        <v>22488.688189840512</v>
+        <v>22655.387563323431</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" si="2"/>
-        <v>83.233500000000006</v>
+        <v>83.132530120481903</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="3"/>
-        <v>-9.6041099999999991E-5</v>
+        <v>-9.5348837209302301E-5</v>
       </c>
       <c r="R18" s="30">
         <f t="shared" si="4"/>
@@ -8318,17 +8326,17 @@
       <c r="V18"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B19" s="2">
-        <v>98.327799999999996</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45.8506</v>
-      </c>
-      <c r="D19" s="2">
-        <v>97.604799999999997</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-107.038</v>
+      <c r="B19" s="83">
+        <v>97.376216673719696</v>
+      </c>
+      <c r="C19" s="83">
+        <v>45.138639709607602</v>
+      </c>
+      <c r="D19" s="83">
+        <v>96.829422954977801</v>
+      </c>
+      <c r="E19" s="83">
+        <v>-107.20930232558101</v>
       </c>
       <c r="F19" s="2">
         <v>175.56399999999999</v>
@@ -8350,19 +8358,19 @@
       </c>
       <c r="N19" s="30">
         <f t="shared" si="0"/>
-        <v>98.327799999999996</v>
+        <v>97.376216673719696</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" si="1"/>
-        <v>21809.965409394863</v>
+        <v>22153.968449943201</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" si="2"/>
-        <v>97.604799999999997</v>
+        <v>96.829422954977801</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="3"/>
-        <v>-1.0703799999999999E-4</v>
+        <v>-1.07209302325581E-4</v>
       </c>
       <c r="R19" s="30">
         <f t="shared" si="4"/>
@@ -8383,17 +8391,17 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B20" s="2">
-        <v>110.881</v>
-      </c>
-      <c r="C20" s="1">
-        <v>46.538499999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>111.377</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-118.768</v>
+      <c r="B20" s="83">
+        <v>111.29502363312299</v>
+      </c>
+      <c r="C20" s="83">
+        <v>46.555375417975398</v>
+      </c>
+      <c r="D20" s="83">
+        <v>111.09701965757699</v>
+      </c>
+      <c r="E20" s="83">
+        <v>-118.60465116279001</v>
       </c>
       <c r="F20" s="2">
         <v>207.95500000000001</v>
@@ -8415,19 +8423,19 @@
       </c>
       <c r="N20" s="30">
         <f t="shared" si="0"/>
-        <v>110.881</v>
+        <v>111.29502363312299</v>
       </c>
       <c r="O20" s="21">
         <f t="shared" si="1"/>
-        <v>21487.585547449962</v>
+        <v>21479.796715674041</v>
       </c>
       <c r="P20" s="30">
         <f t="shared" si="2"/>
-        <v>111.377</v>
+        <v>111.09701965757699</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="3"/>
-        <v>-1.18768E-4</v>
+        <v>-1.1860465116278999E-4</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="4"/>
@@ -8448,17 +8456,17 @@
       <c r="V20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B21" s="2">
-        <v>124.634</v>
-      </c>
-      <c r="C21" s="1">
-        <v>48.155799999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>125.15</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-129.03200000000001</v>
+      <c r="B21" s="83">
+        <v>125.212638505599</v>
+      </c>
+      <c r="C21" s="83">
+        <v>47.804980539180903</v>
+      </c>
+      <c r="D21" s="83">
+        <v>124.79391249207301</v>
+      </c>
+      <c r="E21" s="83">
+        <v>-130</v>
       </c>
       <c r="F21" s="2">
         <v>239.15899999999999</v>
@@ -8480,19 +8488,19 @@
       </c>
       <c r="N21" s="30">
         <f t="shared" si="0"/>
-        <v>124.634</v>
+        <v>125.212638505599</v>
       </c>
       <c r="O21" s="21">
         <f t="shared" si="1"/>
-        <v>20765.930583647245</v>
+        <v>20918.322499481015</v>
       </c>
       <c r="P21" s="30">
         <f t="shared" si="2"/>
-        <v>125.15</v>
+        <v>124.79391249207301</v>
       </c>
       <c r="Q21" s="17">
         <f t="shared" si="3"/>
-        <v>-1.2903200000000001E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="R21" s="30">
         <f t="shared" si="4"/>
@@ -8513,17 +8521,17 @@
       <c r="V21"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B22" s="2">
-        <v>139.57900000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>49.074399999999997</v>
-      </c>
-      <c r="D22" s="2">
-        <v>140.12</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-141.49600000000001</v>
+      <c r="B22" s="83">
+        <v>139.344232981468</v>
+      </c>
+      <c r="C22" s="83">
+        <v>49.054526056039997</v>
+      </c>
+      <c r="D22" s="83">
+        <v>139.06150919467299</v>
+      </c>
+      <c r="E22" s="83">
+        <v>-141.39534883720901</v>
       </c>
       <c r="F22" s="2">
         <v>263.29199999999997</v>
@@ -8545,19 +8553,19 @@
       </c>
       <c r="N22" s="30">
         <f t="shared" si="0"/>
-        <v>139.57900000000001</v>
+        <v>139.344232981468</v>
       </c>
       <c r="O22" s="21">
         <f t="shared" si="1"/>
-        <v>20377.22315504622</v>
+        <v>20385.478780441135</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" si="2"/>
-        <v>140.12</v>
+        <v>139.06150919467299</v>
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="3"/>
-        <v>-1.4149600000000002E-4</v>
+        <v>-1.4139534883720901E-4</v>
       </c>
       <c r="R22" s="30">
         <f t="shared" si="4"/>
@@ -8578,17 +8586,17 @@
       <c r="V22"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B23" s="2">
-        <v>152.73400000000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>50.459600000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <v>153.29300000000001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-150.29300000000001</v>
+      <c r="B23" s="83">
+        <v>153.47642350080099</v>
+      </c>
+      <c r="C23" s="83">
+        <v>50.3876368664803</v>
+      </c>
+      <c r="D23" s="83">
+        <v>153.13887127457099</v>
+      </c>
+      <c r="E23" s="83">
+        <v>-151.62790697674399</v>
       </c>
       <c r="F23" s="2">
         <v>279.19099999999997</v>
@@ -8610,19 +8618,19 @@
       </c>
       <c r="N23" s="30">
         <f t="shared" si="0"/>
-        <v>152.73400000000001</v>
+        <v>153.47642350080099</v>
       </c>
       <c r="O23" s="21">
         <f t="shared" si="1"/>
-        <v>19817.834465592277</v>
+        <v>19846.138104270507</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" si="2"/>
-        <v>153.29300000000001</v>
+        <v>153.13887127457099</v>
       </c>
       <c r="Q23" s="17">
         <f t="shared" si="3"/>
-        <v>-1.5029299999999999E-4</v>
+        <v>-1.5162790697674397E-4</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="4"/>
@@ -8642,25 +8650,25 @@
       </c>
       <c r="V23" s="22">
         <f>((O25*(Q25)^2)/S19)*T23</f>
-        <v>0.14956898087558193</v>
+        <v>0.15058540037700108</v>
       </c>
       <c r="W23" s="77">
         <f>U23/V23-1</f>
-        <v>0.24771860386772815</v>
+        <v>0.23929676803185296</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B24" s="2">
-        <v>168.279</v>
-      </c>
-      <c r="C24" s="1">
-        <v>51.8429</v>
-      </c>
-      <c r="D24" s="2">
-        <v>167.66499999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-163.49</v>
+      <c r="B24" s="83">
+        <v>167.82080549313599</v>
+      </c>
+      <c r="C24" s="83">
+        <v>51.469992191830599</v>
+      </c>
+      <c r="D24" s="83">
+        <v>167.977171845275</v>
+      </c>
+      <c r="E24" s="83">
+        <v>-163.255813953488</v>
       </c>
       <c r="F24" s="2">
         <v>295.66800000000001</v>
@@ -8682,19 +8690,19 @@
       </c>
       <c r="N24" s="30">
         <f t="shared" si="0"/>
-        <v>168.279</v>
+        <v>167.82080549313599</v>
       </c>
       <c r="O24" s="21">
         <f t="shared" si="1"/>
-        <v>19289.044401451309</v>
+        <v>19428.796419338134</v>
       </c>
       <c r="P24" s="30">
         <f t="shared" si="2"/>
-        <v>167.66499999999999</v>
+        <v>167.977171845275</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="3"/>
-        <v>-1.6348999999999999E-4</v>
+        <v>-1.6325581395348801E-4</v>
       </c>
       <c r="R24" s="30">
         <f t="shared" si="4"/>
@@ -8715,17 +8723,17 @@
       <c r="V24"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B25" s="2">
-        <v>182.03</v>
-      </c>
-      <c r="C25" s="1">
-        <v>52.994999999999997</v>
-      </c>
-      <c r="D25" s="2">
-        <v>182.036</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-172.28700000000001</v>
+      <c r="B25" s="83">
+        <v>181.95299601246899</v>
+      </c>
+      <c r="C25" s="83">
+        <v>52.803103002270902</v>
+      </c>
+      <c r="D25" s="83">
+        <v>181.67406467977099</v>
+      </c>
+      <c r="E25" s="83">
+        <v>-172.558139534883</v>
       </c>
       <c r="F25" s="55">
         <v>312.15199999999999</v>
@@ -8747,19 +8755,19 @@
       </c>
       <c r="N25" s="30">
         <f t="shared" si="0"/>
-        <v>182.03</v>
+        <v>181.95299601246899</v>
       </c>
       <c r="O25" s="21">
         <f t="shared" si="1"/>
-        <v>18869.704689121616</v>
+        <v>18938.280955893693</v>
       </c>
       <c r="P25" s="30">
         <f t="shared" si="2"/>
-        <v>182.036</v>
+        <v>181.67406467977099</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="3"/>
-        <v>-1.72287E-4</v>
+        <v>-1.7255813953488298E-4</v>
       </c>
       <c r="R25" s="30">
         <f>(F25+H25)/2</f>
@@ -8779,25 +8787,25 @@
       </c>
       <c r="V25" s="22">
         <f>((O27*(Q27)^2)/S20)*T25</f>
-        <v>0.19887983428338246</v>
+        <v>0.20043282161742687</v>
       </c>
       <c r="W25" s="77">
         <f>U25/V25-1</f>
-        <v>0.28313160014193794</v>
+        <v>0.27318967991723508</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B26" s="2">
-        <v>196.37799999999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>54.146700000000003</v>
-      </c>
-      <c r="D26" s="2">
-        <v>196.40700000000001</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-184.018</v>
+      <c r="B26" s="83">
+        <v>196.085782575265</v>
+      </c>
+      <c r="C26" s="83">
+        <v>54.2197791062924</v>
+      </c>
+      <c r="D26" s="83">
+        <v>195.941661382371</v>
+      </c>
+      <c r="E26" s="83">
+        <v>-184.65116279069699</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -8811,19 +8819,19 @@
       </c>
       <c r="N26" s="30">
         <f t="shared" si="0"/>
-        <v>196.37799999999999</v>
+        <v>196.085782575265</v>
       </c>
       <c r="O26" s="21">
         <f t="shared" si="1"/>
-        <v>18468.346178068099</v>
+        <v>18443.453966118177</v>
       </c>
       <c r="P26" s="30">
         <f t="shared" si="2"/>
-        <v>196.40700000000001</v>
+        <v>195.941661382371</v>
       </c>
       <c r="Q26" s="17">
         <f t="shared" si="3"/>
-        <v>-1.8401799999999999E-4</v>
+        <v>-1.8465116279069697E-4</v>
       </c>
       <c r="R26" s="30"/>
       <c r="S26" s="24"/>
@@ -8838,17 +8846,17 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B27" s="48">
-        <v>210.727</v>
-      </c>
-      <c r="C27" s="48">
-        <v>55.298299999999998</v>
-      </c>
-      <c r="D27" s="48">
-        <v>210.77799999999999</v>
-      </c>
-      <c r="E27" s="48">
-        <v>-193.548</v>
+      <c r="B27" s="83">
+        <v>210.21380079035299</v>
+      </c>
+      <c r="C27" s="83">
+        <v>54.967932861664202</v>
+      </c>
+      <c r="D27" s="83">
+        <v>210.01902346227001</v>
+      </c>
+      <c r="E27" s="83">
+        <v>-193.720930232558</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -8862,19 +8870,19 @@
       </c>
       <c r="N27" s="30">
         <f t="shared" si="0"/>
-        <v>210.727</v>
+        <v>210.21380079035299</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="1"/>
-        <v>18083.738559774898</v>
+        <v>18192.425072935956</v>
       </c>
       <c r="P27" s="30">
         <f t="shared" si="2"/>
-        <v>210.77799999999999</v>
+        <v>210.01902346227001</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="3"/>
-        <v>-1.9354799999999998E-4</v>
+        <v>-1.9372093023255798E-4</v>
       </c>
       <c r="R27" s="30"/>
       <c r="S27" s="24"/>
@@ -8889,17 +8897,17 @@
       <c r="V27"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B28" s="2">
-        <v>223.88</v>
-      </c>
-      <c r="C28" s="1">
-        <v>56.450899999999997</v>
-      </c>
-      <c r="D28" s="2">
-        <v>223.952</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-203.81200000000001</v>
+      <c r="B28" s="83">
+        <v>224.55818278268799</v>
+      </c>
+      <c r="C28" s="83">
+        <v>56.050288187014601</v>
+      </c>
+      <c r="D28" s="83">
+        <v>223.906150919467</v>
+      </c>
+      <c r="E28" s="83">
+        <v>-205.11627906976699</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -8913,19 +8921,19 @@
       </c>
       <c r="N28" s="30">
         <f t="shared" si="0"/>
-        <v>223.88</v>
+        <v>224.55818278268799</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="1"/>
-        <v>17714.509423233289</v>
+        <v>17841.121470481114</v>
       </c>
       <c r="P28" s="30">
         <f t="shared" si="2"/>
-        <v>223.952</v>
+        <v>223.906150919467</v>
       </c>
       <c r="Q28" s="17">
         <f t="shared" si="3"/>
-        <v>-2.0381199999999999E-4</v>
+        <v>-2.0511627906976698E-4</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="24"/>
@@ -8940,17 +8948,17 @@
       <c r="V28"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B29" s="2">
-        <v>238.82400000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>57.137</v>
-      </c>
-      <c r="D29" s="2">
-        <v>238.32300000000001</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-214.07599999999999</v>
+      <c r="B29" s="83">
+        <v>238.68739308470299</v>
+      </c>
+      <c r="C29" s="83">
+        <v>56.965572529548801</v>
+      </c>
+      <c r="D29" s="83">
+        <v>238.36398224476801</v>
+      </c>
+      <c r="E29" s="83">
+        <v>-214.41860465116201</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -8964,19 +8972,19 @@
       </c>
       <c r="N29" s="30">
         <f t="shared" si="0"/>
-        <v>238.82400000000001</v>
+        <v>238.68739308470299</v>
       </c>
       <c r="O29" s="21">
         <f t="shared" si="1"/>
-        <v>17501.793933878223</v>
+        <v>17554.462381314377</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" si="2"/>
-        <v>238.32300000000001</v>
+        <v>238.36398224476801</v>
       </c>
       <c r="Q29" s="17">
         <f t="shared" si="3"/>
-        <v>-2.1407599999999997E-4</v>
+        <v>-2.14418604651162E-4</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="24"/>
@@ -8991,17 +8999,17 @@
       <c r="V29"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B30" s="2">
-        <v>251.97499999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>57.8245</v>
-      </c>
-      <c r="D30" s="2">
-        <v>252.096</v>
-      </c>
-      <c r="E30" s="1">
-        <v>-224.34</v>
+      <c r="B30" s="83">
+        <v>251.96008892968399</v>
+      </c>
+      <c r="C30" s="83">
+        <v>57.797529995887302</v>
+      </c>
+      <c r="D30" s="83">
+        <v>251.49017121116</v>
+      </c>
+      <c r="E30" s="83">
+        <v>-224.41860465116201</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -9015,19 +9023,19 @@
       </c>
       <c r="N30" s="31">
         <f t="shared" si="0"/>
-        <v>251.97499999999999</v>
+        <v>251.96008892968399</v>
       </c>
       <c r="O30" s="21">
         <f t="shared" si="1"/>
-        <v>17293.707684459012</v>
+        <v>17301.77743012819</v>
       </c>
       <c r="P30" s="30">
         <f t="shared" si="2"/>
-        <v>252.096</v>
+        <v>251.49017121116</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="3"/>
-        <v>-2.2433999999999998E-4</v>
+        <v>-2.24418604651162E-4</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="24"/>
@@ -9041,25 +9049,25 @@
       </c>
       <c r="V30" s="22">
         <f>((O32*(Q32)^2)/S24)*T30</f>
-        <v>0.35015354305329516</v>
+        <v>0.35134699334817882</v>
       </c>
       <c r="W30" s="77">
         <f>U30/V30-1</f>
-        <v>0.3120615487534093</v>
+        <v>0.30760475739924642</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B31" s="2">
-        <v>265.72199999999998</v>
-      </c>
-      <c r="C31" s="1">
-        <v>58.279000000000003</v>
-      </c>
-      <c r="D31" s="2">
-        <v>265.86799999999999</v>
-      </c>
-      <c r="E31" s="1">
-        <v>-233.87100000000001</v>
+      <c r="B31" s="83">
+        <v>266.51427822116699</v>
+      </c>
+      <c r="C31" s="83">
+        <v>58.294868661822797</v>
+      </c>
+      <c r="D31" s="83">
+        <v>266.138237159163</v>
+      </c>
+      <c r="E31" s="83">
+        <v>-234.18604651162701</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -9073,19 +9081,19 @@
       </c>
       <c r="N31" s="31">
         <f t="shared" ref="N31:N36" si="8">B31</f>
-        <v>265.72199999999998</v>
+        <v>266.51427822116699</v>
       </c>
       <c r="O31" s="21">
         <f t="shared" ref="O31:O36" si="9">1/(C31*10^(-6))</f>
-        <v>17158.839376104599</v>
+        <v>17154.168504969944</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" ref="P31:P36" si="10">D31</f>
-        <v>265.86799999999999</v>
+        <v>266.138237159163</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" ref="Q31:Q36" si="11">E31*0.000001</f>
-        <v>-2.33871E-4</v>
+        <v>-2.3418604651162701E-4</v>
       </c>
       <c r="R31" s="30"/>
       <c r="S31" s="24"/>
@@ -9099,17 +9107,17 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B32" s="2">
-        <v>279.471</v>
-      </c>
-      <c r="C32" s="1">
-        <v>58.966000000000001</v>
-      </c>
-      <c r="D32" s="2">
-        <v>280.24</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-244.13499999999999</v>
+      <c r="B32" s="83">
+        <v>280.21493327293399</v>
+      </c>
+      <c r="C32" s="83">
+        <v>59.126706919468504</v>
+      </c>
+      <c r="D32" s="83">
+        <v>279.83512999365797</v>
+      </c>
+      <c r="E32" s="83">
+        <v>-244.88372093023199</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -9123,19 +9131,19 @@
       </c>
       <c r="N32" s="31">
         <f t="shared" si="8"/>
-        <v>279.471</v>
+        <v>280.21493327293399</v>
       </c>
       <c r="O32" s="21">
         <f t="shared" si="9"/>
-        <v>16958.925482481431</v>
+        <v>16912.830970986015</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" si="10"/>
-        <v>280.24</v>
+        <v>279.83512999365797</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="11"/>
-        <v>-2.4413499999999998E-4</v>
+        <v>-2.4488372093023195E-4</v>
       </c>
       <c r="R32" s="31"/>
       <c r="S32" s="25"/>
@@ -9149,17 +9157,17 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B33" s="2">
-        <v>289.63</v>
-      </c>
-      <c r="C33" s="1">
-        <v>58.958100000000002</v>
-      </c>
-      <c r="D33" s="2">
-        <v>289.82</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-250.733</v>
+      <c r="B33" s="83">
+        <v>289.84461146906801</v>
+      </c>
+      <c r="C33" s="83">
+        <v>59.207590017464</v>
+      </c>
+      <c r="D33" s="83">
+        <v>289.72733037412797</v>
+      </c>
+      <c r="E33" s="83">
+        <v>-250.93023255813901</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -9173,19 +9181,19 @@
       </c>
       <c r="N33" s="31">
         <f t="shared" si="8"/>
-        <v>289.63</v>
+        <v>289.84461146906801</v>
       </c>
       <c r="O33" s="21">
         <f t="shared" si="9"/>
-        <v>16961.197867638202</v>
+        <v>16889.72646420903</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" si="10"/>
-        <v>289.82</v>
+        <v>289.72733037412797</v>
       </c>
       <c r="Q33" s="17">
         <f t="shared" si="11"/>
-        <v>-2.50733E-4</v>
+        <v>-2.5093023255813899E-4</v>
       </c>
       <c r="R33" s="31"/>
       <c r="S33" s="25"/>
@@ -9199,25 +9207,25 @@
       </c>
       <c r="V33" s="22">
         <f>((O35*(Q35)^2)/S25)*T33</f>
-        <v>0.40753306508259385</v>
+        <v>0.41108976698108107</v>
       </c>
       <c r="W33" s="77">
         <f>U33/V33-1</f>
-        <v>0.319478211886977</v>
+        <v>0.30806223650112674</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B34" s="2">
-        <v>295.60700000000003</v>
-      </c>
-      <c r="C34" s="1">
-        <v>59.186</v>
-      </c>
-      <c r="D34" s="2">
-        <v>297.00599999999997</v>
-      </c>
-      <c r="E34" s="1">
-        <v>-255.13200000000001</v>
+      <c r="B34" s="83">
+        <v>296.69255482109702</v>
+      </c>
+      <c r="C34" s="83">
+        <v>59.289247971962098</v>
+      </c>
+      <c r="D34" s="83">
+        <v>296.57577679137597</v>
+      </c>
+      <c r="E34" s="83">
+        <v>-255.81395348837199</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -9231,19 +9239,19 @@
       </c>
       <c r="N34" s="31">
         <f t="shared" si="8"/>
-        <v>295.60700000000003</v>
+        <v>296.69255482109702</v>
       </c>
       <c r="O34" s="21">
         <f t="shared" si="9"/>
-        <v>16895.887540972526</v>
+        <v>16866.464564922469</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" si="10"/>
-        <v>297.00599999999997</v>
+        <v>296.57577679137597</v>
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="11"/>
-        <v>-2.5513199999999998E-4</v>
+        <v>-2.55813953488372E-4</v>
       </c>
       <c r="R34" s="31"/>
       <c r="S34" s="25"/>
@@ -9257,25 +9265,25 @@
       </c>
       <c r="V34" s="22">
         <f>((O36*(Q36)^2)/S25)*T34</f>
-        <v>0.42500095726456233</v>
+        <v>0.42446019052279121</v>
       </c>
       <c r="W34" s="77">
         <f>U34/V34-1</f>
-        <v>0.30143471572392122</v>
+        <v>0.30309275722360352</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B35" s="2">
-        <v>301.58499999999998</v>
-      </c>
-      <c r="C35" s="1">
-        <v>59.414000000000001</v>
-      </c>
-      <c r="D35" s="2">
-        <v>301.19799999999998</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-256.59800000000001</v>
+      <c r="B35" s="83">
+        <v>301.18612649234302</v>
+      </c>
+      <c r="C35" s="83">
+        <v>59.287996280688802</v>
+      </c>
+      <c r="D35" s="83">
+        <v>300.38046924540203</v>
+      </c>
+      <c r="E35" s="83">
+        <v>-257.44186046511601</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -9285,19 +9293,19 @@
       <c r="K35" s="1"/>
       <c r="N35" s="31">
         <f t="shared" si="8"/>
-        <v>301.58499999999998</v>
+        <v>301.18612649234302</v>
       </c>
       <c r="O35" s="21">
         <f t="shared" si="9"/>
-        <v>16831.049920894067</v>
+        <v>16866.820650603073</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" si="10"/>
-        <v>301.19799999999998</v>
+        <v>300.38046924540203</v>
       </c>
       <c r="Q35" s="17">
         <f t="shared" si="11"/>
-        <v>-2.5659800000000003E-4</v>
+        <v>-2.5744186046511601E-4</v>
       </c>
       <c r="R35" s="31"/>
       <c r="S35" s="25"/>
@@ -9305,17 +9313,17 @@
       <c r="U35" s="25"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B36" s="2">
-        <v>305.17099999999999</v>
-      </c>
-      <c r="C36" s="1">
-        <v>59.643700000000003</v>
-      </c>
-      <c r="D36" s="2">
-        <v>305.38900000000001</v>
-      </c>
-      <c r="E36" s="1">
-        <v>-260.99700000000001</v>
+      <c r="B36" s="83">
+        <v>305.46631460366001</v>
+      </c>
+      <c r="C36" s="83">
+        <v>59.370369487342998</v>
+      </c>
+      <c r="D36" s="83">
+        <v>304.18516169942899</v>
+      </c>
+      <c r="E36" s="83">
+        <v>-260.232558139535</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -9325,26 +9333,1725 @@
       <c r="K36" s="1"/>
       <c r="N36" s="31">
         <f t="shared" si="8"/>
-        <v>305.17099999999999</v>
+        <v>305.46631460366001</v>
       </c>
       <c r="O36" s="21">
         <f t="shared" si="9"/>
-        <v>16766.230129921518</v>
+        <v>16843.418840659015</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" si="10"/>
-        <v>305.38900000000001</v>
+        <v>304.18516169942899</v>
       </c>
       <c r="Q36" s="17">
         <f t="shared" si="11"/>
-        <v>-2.6099700000000001E-4</v>
+        <v>-2.6023255813953497E-4</v>
       </c>
       <c r="R36" s="31"/>
       <c r="S36" s="25"/>
       <c r="T36" s="31"/>
       <c r="U36" s="25"/>
     </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B40">
+        <v>5.4669897516580699</v>
+      </c>
+      <c r="C40">
+        <v>40.715025236553799</v>
+      </c>
+      <c r="D40">
+        <v>4.9461001902346302</v>
+      </c>
+      <c r="E40">
+        <v>-8.3720930232558199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B41">
+        <v>9.7967557096731905</v>
+      </c>
+      <c r="C41">
+        <v>40.109323661387499</v>
+      </c>
+      <c r="D41">
+        <v>7.2289156626505999</v>
+      </c>
+      <c r="E41">
+        <v>-12.790697674418499</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B42">
+        <v>13.6131470410525</v>
+      </c>
+      <c r="C42">
+        <v>39.8664623948452</v>
+      </c>
+      <c r="D42">
+        <v>12.5554850982878</v>
+      </c>
+      <c r="E42">
+        <v>-20.930232558139501</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B43">
+        <v>18.380192283621199</v>
+      </c>
+      <c r="C43">
+        <v>39.896020217794202</v>
+      </c>
+      <c r="D43">
+        <v>18.2625237793278</v>
+      </c>
+      <c r="E43">
+        <v>-29.302325581395301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B44">
+        <v>25.6554987989723</v>
+      </c>
+      <c r="C44">
+        <v>39.893993670018403</v>
+      </c>
+      <c r="D44">
+        <v>25.681674064679701</v>
+      </c>
+      <c r="E44">
+        <v>-37.674418604651102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B45">
+        <v>34.644430271855299</v>
+      </c>
+      <c r="C45">
+        <v>40.142186168215297</v>
+      </c>
+      <c r="D45">
+        <v>34.051997463538299</v>
+      </c>
+      <c r="E45">
+        <v>-47.674418604651201</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B46">
+        <v>44.705643935555699</v>
+      </c>
+      <c r="C46">
+        <v>40.724341819005403</v>
+      </c>
+      <c r="D46">
+        <v>44.134432466708901</v>
+      </c>
+      <c r="E46">
+        <v>-58.139534883720899</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B47">
+        <v>56.481674643714904</v>
+      </c>
+      <c r="C47">
+        <v>41.723847102930698</v>
+      </c>
+      <c r="D47">
+        <v>55.928979074191503</v>
+      </c>
+      <c r="E47">
+        <v>-68.139534883720998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B48">
+        <v>69.113027721981396</v>
+      </c>
+      <c r="C48">
+        <v>42.639548675889401</v>
+      </c>
+      <c r="D48">
+        <v>69.435637285986004</v>
+      </c>
+      <c r="E48">
+        <v>-82.558139534883693</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B49">
+        <v>83.888349138419102</v>
+      </c>
+      <c r="C49">
+        <v>44.139611260453101</v>
+      </c>
+      <c r="D49">
+        <v>83.132530120481903</v>
+      </c>
+      <c r="E49">
+        <v>-95.348837209302303</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B50">
+        <v>97.376216673719696</v>
+      </c>
+      <c r="C50">
+        <v>45.138639709607602</v>
+      </c>
+      <c r="D50">
+        <v>96.829422954977801</v>
+      </c>
+      <c r="E50">
+        <v>-107.20930232558101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B51">
+        <v>111.29502363312299</v>
+      </c>
+      <c r="C51">
+        <v>46.555375417975398</v>
+      </c>
+      <c r="D51">
+        <v>111.09701965757699</v>
+      </c>
+      <c r="E51">
+        <v>-118.60465116279001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B52">
+        <v>125.212638505599</v>
+      </c>
+      <c r="C52">
+        <v>47.804980539180903</v>
+      </c>
+      <c r="D52">
+        <v>124.79391249207301</v>
+      </c>
+      <c r="E52">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B53">
+        <v>139.344232981468</v>
+      </c>
+      <c r="C53">
+        <v>49.054526056039997</v>
+      </c>
+      <c r="D53">
+        <v>139.06150919467299</v>
+      </c>
+      <c r="E53">
+        <v>-141.39534883720901</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B54">
+        <v>153.47642350080099</v>
+      </c>
+      <c r="C54">
+        <v>50.3876368664803</v>
+      </c>
+      <c r="D54">
+        <v>153.13887127457099</v>
+      </c>
+      <c r="E54">
+        <v>-151.62790697674399</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B55">
+        <v>167.82080549313599</v>
+      </c>
+      <c r="C55">
+        <v>51.469992191830599</v>
+      </c>
+      <c r="D55">
+        <v>167.977171845275</v>
+      </c>
+      <c r="E55">
+        <v>-163.255813953488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B56">
+        <v>181.95299601246899</v>
+      </c>
+      <c r="C56">
+        <v>52.803103002270902</v>
+      </c>
+      <c r="D56">
+        <v>181.67406467977099</v>
+      </c>
+      <c r="E56">
+        <v>-172.558139534883</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B57">
+        <v>196.085782575265</v>
+      </c>
+      <c r="C57">
+        <v>54.2197791062924</v>
+      </c>
+      <c r="D57">
+        <v>195.941661382371</v>
+      </c>
+      <c r="E57">
+        <v>-184.65116279069699</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B58">
+        <v>210.21380079035299</v>
+      </c>
+      <c r="C58">
+        <v>54.967932861664202</v>
+      </c>
+      <c r="D58">
+        <v>210.01902346227001</v>
+      </c>
+      <c r="E58">
+        <v>-193.720930232558</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B59">
+        <v>224.55818278268799</v>
+      </c>
+      <c r="C59">
+        <v>56.050288187014601</v>
+      </c>
+      <c r="D59">
+        <v>223.906150919467</v>
+      </c>
+      <c r="E59">
+        <v>-205.11627906976699</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B60">
+        <v>238.68739308470299</v>
+      </c>
+      <c r="C60">
+        <v>56.965572529548801</v>
+      </c>
+      <c r="D60">
+        <v>238.36398224476801</v>
+      </c>
+      <c r="E60">
+        <v>-214.41860465116201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B61">
+        <v>251.96008892968399</v>
+      </c>
+      <c r="C61">
+        <v>57.797529995887302</v>
+      </c>
+      <c r="D61">
+        <v>251.49017121116</v>
+      </c>
+      <c r="E61">
+        <v>-224.41860465116201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B62">
+        <v>266.51427822116699</v>
+      </c>
+      <c r="C62">
+        <v>58.294868661822797</v>
+      </c>
+      <c r="D62">
+        <v>266.138237159163</v>
+      </c>
+      <c r="E62">
+        <v>-234.18604651162701</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B63">
+        <v>280.21493327293399</v>
+      </c>
+      <c r="C63">
+        <v>59.126706919468504</v>
+      </c>
+      <c r="D63">
+        <v>279.83512999365797</v>
+      </c>
+      <c r="E63">
+        <v>-244.88372093023199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B64">
+        <v>289.84461146906801</v>
+      </c>
+      <c r="C64">
+        <v>59.207590017464</v>
+      </c>
+      <c r="D64">
+        <v>289.72733037412797</v>
+      </c>
+      <c r="E64">
+        <v>-250.93023255813901</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B65">
+        <v>296.69255482109702</v>
+      </c>
+      <c r="C65">
+        <v>59.289247971962098</v>
+      </c>
+      <c r="D65">
+        <v>296.57577679137597</v>
+      </c>
+      <c r="E65">
+        <v>-255.81395348837199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B66">
+        <v>301.18612649234302</v>
+      </c>
+      <c r="C66">
+        <v>59.287996280688802</v>
+      </c>
+      <c r="D66">
+        <v>300.38046924540203</v>
+      </c>
+      <c r="E66">
+        <v>-257.44186046511601</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B67">
+        <v>305.46631460366001</v>
+      </c>
+      <c r="C67">
+        <v>59.370369487342998</v>
+      </c>
+      <c r="D67">
+        <v>304.18516169942899</v>
+      </c>
+      <c r="E67">
+        <v>-260.232558139535</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B69" s="3">
+        <v>5.0760899999999998</v>
+      </c>
+      <c r="C69" s="4">
+        <v>41.039099999999998</v>
+      </c>
+      <c r="D69" s="3">
+        <v>4.1916200000000003</v>
+      </c>
+      <c r="E69" s="4">
+        <v>-6.5982399999999997</v>
+      </c>
+      <c r="F69" s="2">
+        <v>8.2812999999999999</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.4255E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8.4404699999999995</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.15652199999999999</v>
+      </c>
+      <c r="J69" s="3">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="K69" s="4">
+        <v>2.8405599999999998E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B70" s="3">
+        <v>9.2569599999999994</v>
+      </c>
+      <c r="C70" s="4">
+        <v>40.570700000000002</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7.7844300000000004</v>
+      </c>
+      <c r="E70" s="4">
+        <v>-13.1965</v>
+      </c>
+      <c r="F70" s="2">
+        <v>33.616599999999998</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5.1020299999999998E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>34.225499999999997</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.59534500000000001</v>
+      </c>
+      <c r="J70" s="3">
+        <v>14.9223</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2.8878599999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B71" s="2">
+        <v>14.035399999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>40.101900000000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>12.5749</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-19.794699999999999</v>
+      </c>
+      <c r="F71" s="2">
+        <v>44.813600000000001</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6.9423200000000004E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44.820500000000003</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.60138499999999995</v>
+      </c>
+      <c r="J71" s="2">
+        <v>25.080500000000001</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4.3317900000000003E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B72" s="2">
+        <v>19.413900000000002</v>
+      </c>
+      <c r="C72" s="1">
+        <v>40.097700000000003</v>
+      </c>
+      <c r="D72" s="2">
+        <v>19.1617</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-29.325500000000002</v>
+      </c>
+      <c r="F72" s="2">
+        <v>58.356699999999996</v>
+      </c>
+      <c r="G72" s="1">
+        <v>8.1608200000000006E-2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>57.152500000000003</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.58265800000000001</v>
+      </c>
+      <c r="J72" s="2">
+        <v>35.239800000000002</v>
+      </c>
+      <c r="K72" s="1">
+        <v>4.3790799999999996E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B73" s="2">
+        <v>26.586400000000001</v>
+      </c>
+      <c r="C73" s="1">
+        <v>40.3247</v>
+      </c>
+      <c r="D73" s="2">
+        <v>26.347300000000001</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-38.123199999999997</v>
+      </c>
+      <c r="F73" s="2">
+        <v>68.956299999999999</v>
+      </c>
+      <c r="G73" s="1">
+        <v>9.1771900000000003E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>71.253799999999998</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.56803099999999995</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44.201500000000003</v>
+      </c>
+      <c r="K73" s="1">
+        <v>7.2140800000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B74" s="2">
+        <v>34.3553</v>
+      </c>
+      <c r="C74" s="1">
+        <v>40.3187</v>
+      </c>
+      <c r="D74" s="2">
+        <v>34.730499999999999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-46.9208</v>
+      </c>
+      <c r="F74" s="2">
+        <v>78.386300000000006</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.108137</v>
+      </c>
+      <c r="H74" s="2">
+        <v>84.176299999999998</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.55135900000000004</v>
+      </c>
+      <c r="J74" s="2">
+        <v>55.552500000000002</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1.14568E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B75" s="2">
+        <v>44.517000000000003</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40.776000000000003</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43.712600000000002</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-57.184699999999999</v>
+      </c>
+      <c r="F75" s="2">
+        <v>93.700999999999993</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.12648300000000001</v>
+      </c>
+      <c r="H75" s="2">
+        <v>97.682500000000005</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.530555</v>
+      </c>
+      <c r="J75" s="2">
+        <v>69.289100000000005</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2.1297300000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B76" s="2">
+        <v>56.4739</v>
+      </c>
+      <c r="C76" s="1">
+        <v>41.696899999999999</v>
+      </c>
+      <c r="D76" s="2">
+        <v>56.287399999999998</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-66.715500000000006</v>
+      </c>
+      <c r="F76" s="2">
+        <v>121.973</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.159085</v>
+      </c>
+      <c r="H76" s="2">
+        <v>125.88</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.49717699999999998</v>
+      </c>
+      <c r="J76" s="2">
+        <v>82.430499999999995</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2.8341600000000002E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B77" s="2">
+        <v>69.627200000000002</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42.849499999999999</v>
+      </c>
+      <c r="D77" s="2">
+        <v>69.461100000000002</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-80.645200000000003</v>
+      </c>
+      <c r="F77" s="2">
+        <v>135.518</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.17333200000000001</v>
+      </c>
+      <c r="H77" s="2">
+        <v>139.40299999999999</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.49080600000000002</v>
+      </c>
+      <c r="J77" s="2">
+        <v>97.357600000000005</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4.3774100000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B78" s="2">
+        <v>83.380499999999998</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44.466799999999999</v>
+      </c>
+      <c r="D78" s="2">
+        <v>83.233500000000006</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-96.0411</v>
+      </c>
+      <c r="F78" s="2">
+        <v>148.471</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.18346299999999999</v>
+      </c>
+      <c r="H78" s="2">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.48031000000000001</v>
+      </c>
+      <c r="J78" s="2">
+        <v>111.089</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5.92011E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B79" s="2">
+        <v>98.327799999999996</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45.8506</v>
+      </c>
+      <c r="D79" s="2">
+        <v>97.604799999999997</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-107.038</v>
+      </c>
+      <c r="F79" s="2">
+        <v>175.56399999999999</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.21401800000000001</v>
+      </c>
+      <c r="H79" s="2">
+        <v>181.72499999999999</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.46342</v>
+      </c>
+      <c r="J79" s="2">
+        <v>124.818</v>
+      </c>
+      <c r="K79" s="1">
+        <v>7.8817899999999996E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B80" s="2">
+        <v>110.881</v>
+      </c>
+      <c r="C80" s="1">
+        <v>46.538499999999999</v>
+      </c>
+      <c r="D80" s="2">
+        <v>111.377</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-118.768</v>
+      </c>
+      <c r="F80" s="2">
+        <v>207.95500000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.24862500000000001</v>
+      </c>
+      <c r="H80" s="2">
+        <v>211.13900000000001</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.46507700000000002</v>
+      </c>
+      <c r="J80" s="2">
+        <v>138.542</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.10262499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B81" s="2">
+        <v>124.634</v>
+      </c>
+      <c r="C81" s="1">
+        <v>48.155799999999999</v>
+      </c>
+      <c r="D81" s="2">
+        <v>125.15</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-129.03200000000001</v>
+      </c>
+      <c r="F81" s="2">
+        <v>239.15899999999999</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.27293800000000001</v>
+      </c>
+      <c r="H81" s="2">
+        <v>238.80600000000001</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.48325400000000002</v>
+      </c>
+      <c r="J81" s="48">
+        <v>152.86600000000001</v>
+      </c>
+      <c r="K81" s="48">
+        <v>0.12503800000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B82" s="2">
+        <v>139.57900000000001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>49.074399999999997</v>
+      </c>
+      <c r="D82" s="2">
+        <v>140.12</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-141.49600000000001</v>
+      </c>
+      <c r="F82" s="2">
+        <v>263.29199999999997</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.28704000000000002</v>
+      </c>
+      <c r="H82" s="2">
+        <v>265.87799999999999</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.495253</v>
+      </c>
+      <c r="J82" s="2">
+        <v>167.18199999999999</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.15583</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B83" s="2">
+        <v>152.73400000000001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>50.459600000000002</v>
+      </c>
+      <c r="D83" s="2">
+        <v>153.29300000000001</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-150.29300000000001</v>
+      </c>
+      <c r="F83" s="2">
+        <v>279.19099999999997</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.30125400000000002</v>
+      </c>
+      <c r="H83" s="2">
+        <v>280.59100000000001</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.50123600000000001</v>
+      </c>
+      <c r="J83" s="2">
+        <v>180.90100000000001</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.18662000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B84" s="2">
+        <v>168.279</v>
+      </c>
+      <c r="C84" s="1">
+        <v>51.8429</v>
+      </c>
+      <c r="D84" s="2">
+        <v>167.66499999999999</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-163.49</v>
+      </c>
+      <c r="F84" s="2">
+        <v>295.66800000000001</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.30721300000000001</v>
+      </c>
+      <c r="H84" s="2">
+        <v>295.88200000000001</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.49896400000000002</v>
+      </c>
+      <c r="J84" s="2">
+        <v>195.214</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.22160299999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B85" s="2">
+        <v>182.03</v>
+      </c>
+      <c r="C85" s="1">
+        <v>52.994999999999997</v>
+      </c>
+      <c r="D85" s="2">
+        <v>182.036</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-172.28700000000001</v>
+      </c>
+      <c r="F85" s="55">
+        <v>312.15199999999999</v>
+      </c>
+      <c r="G85" s="55">
+        <v>0.31935799999999998</v>
+      </c>
+      <c r="H85" s="2">
+        <v>305.88</v>
+      </c>
+      <c r="I85">
+        <v>0.49676500000000001</v>
+      </c>
+      <c r="J85" s="2">
+        <v>209.52799999999999</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.255189</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B86" s="2">
+        <v>196.37799999999999</v>
+      </c>
+      <c r="C86" s="1">
+        <v>54.146700000000003</v>
+      </c>
+      <c r="D86" s="2">
+        <v>196.40700000000001</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-184.018</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="2">
+        <v>223.83799999999999</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.29296499999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B87" s="48">
+        <v>210.727</v>
+      </c>
+      <c r="C87" s="48">
+        <v>55.298299999999998</v>
+      </c>
+      <c r="D87" s="48">
+        <v>210.77799999999999</v>
+      </c>
+      <c r="E87" s="48">
+        <v>-193.548</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="2">
+        <v>237.55500000000001</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.326548</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B88" s="2">
+        <v>223.88</v>
+      </c>
+      <c r="C88" s="1">
+        <v>56.450899999999997</v>
+      </c>
+      <c r="D88" s="2">
+        <v>223.952</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-203.81200000000001</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="2">
+        <v>251.262</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.37130400000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B89" s="2">
+        <v>238.82400000000001</v>
+      </c>
+      <c r="C89" s="1">
+        <v>57.137</v>
+      </c>
+      <c r="D89" s="2">
+        <v>238.32300000000001</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-214.07599999999999</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="2">
+        <v>264.97300000000001</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.41047400000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B90" s="2">
+        <v>251.97499999999999</v>
+      </c>
+      <c r="C90" s="1">
+        <v>57.8245</v>
+      </c>
+      <c r="D90" s="2">
+        <v>252.096</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-224.34</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="2">
+        <v>279.274</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.45942300000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B91" s="2">
+        <v>265.72199999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>58.279000000000003</v>
+      </c>
+      <c r="D91" s="2">
+        <v>265.86799999999999</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-233.87100000000001</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="2">
+        <v>288.80500000000001</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.49577900000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B92" s="2">
+        <v>279.471</v>
+      </c>
+      <c r="C92" s="1">
+        <v>58.966000000000001</v>
+      </c>
+      <c r="D92" s="2">
+        <v>280.24</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-244.13499999999999</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="2">
+        <v>294.76</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.52094700000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B93" s="2">
+        <v>289.63</v>
+      </c>
+      <c r="C93" s="1">
+        <v>58.958100000000002</v>
+      </c>
+      <c r="D93" s="2">
+        <v>289.82</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-250.733</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="2">
+        <v>300.12400000000002</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.53773099999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B94" s="2">
+        <v>295.60700000000003</v>
+      </c>
+      <c r="C94" s="1">
+        <v>59.186</v>
+      </c>
+      <c r="D94" s="2">
+        <v>297.00599999999997</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-255.13200000000001</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="48">
+        <v>303.69600000000003</v>
+      </c>
+      <c r="K94" s="48">
+        <v>0.55311100000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B95" s="2">
+        <v>301.58499999999998</v>
+      </c>
+      <c r="C95" s="1">
+        <v>59.414000000000001</v>
+      </c>
+      <c r="D95" s="2">
+        <v>301.19799999999998</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-256.59800000000001</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B96" s="2">
+        <v>305.17099999999999</v>
+      </c>
+      <c r="C96" s="1">
+        <v>59.643700000000003</v>
+      </c>
+      <c r="D96" s="2">
+        <v>305.38900000000001</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-260.99700000000001</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B98" s="75">
+        <f>B69/B40-1</f>
+        <v>-7.1501826309353311E-2</v>
+      </c>
+      <c r="C98" s="75">
+        <f>C69/C40-1</f>
+        <v>7.959586456433021E-3</v>
+      </c>
+      <c r="D98" s="75">
+        <f>D69/D40-1</f>
+        <v>-0.1525404179487192</v>
+      </c>
+      <c r="E98" s="75">
+        <f>E69/E40-1</f>
+        <v>-0.21187688888888945</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B99" s="75">
+        <f t="shared" ref="B99:C99" si="12">B70/B41-1</f>
+        <v>-5.5099435534582519E-2</v>
+      </c>
+      <c r="C99" s="75">
+        <f t="shared" si="12"/>
+        <v>1.1502969795939455E-2</v>
+      </c>
+      <c r="D99" s="75">
+        <f t="shared" ref="D99:E99" si="13">D70/D41-1</f>
+        <v>7.6846150000000391E-2</v>
+      </c>
+      <c r="E99" s="75">
+        <f t="shared" si="13"/>
+        <v>3.1726363636372046E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B100" s="75">
+        <f t="shared" ref="B100:C100" si="14">B71/B42-1</f>
+        <v>3.1018026740924132E-2</v>
+      </c>
+      <c r="C100" s="75">
+        <f t="shared" si="14"/>
+        <v>5.9056558072041465E-3</v>
+      </c>
+      <c r="D100" s="75">
+        <f t="shared" ref="D100:E100" si="15">D71/D42-1</f>
+        <v>1.5463282828351854E-3</v>
+      </c>
+      <c r="E100" s="75">
+        <f t="shared" si="15"/>
+        <v>-5.4253222222220732E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B101" s="75">
+        <f t="shared" ref="B101:C101" si="16">B72/B43-1</f>
+        <v>5.6240310244194403E-2</v>
+      </c>
+      <c r="C101" s="75">
+        <f t="shared" si="16"/>
+        <v>5.0551353519678877E-3</v>
+      </c>
+      <c r="D101" s="75">
+        <f t="shared" ref="D101:E101" si="17">D72/D43-1</f>
+        <v>4.9236142361113178E-2</v>
+      </c>
+      <c r="E101" s="75">
+        <f t="shared" si="17"/>
+        <v>7.9087301587477121E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B102" s="75">
+        <f t="shared" ref="B102:C102" si="18">B73/B44-1</f>
+        <v>3.6284665845787156E-2</v>
+      </c>
+      <c r="C102" s="75">
+        <f t="shared" si="18"/>
+        <v>1.0796270073740066E-2</v>
+      </c>
+      <c r="D102" s="75">
+        <f t="shared" ref="D102:E102" si="19">D73/D44-1</f>
+        <v>2.5918323456793013E-2</v>
+      </c>
+      <c r="E102" s="75">
+        <f t="shared" si="19"/>
+        <v>1.1912098765433754E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B103" s="75">
+        <f t="shared" ref="B103:C103" si="20">B74/B45-1</f>
+        <v>-8.3456494907403478E-3</v>
+      </c>
+      <c r="C103" s="75">
+        <f t="shared" si="20"/>
+        <v>4.397215215061312E-3</v>
+      </c>
+      <c r="D103" s="75">
+        <f t="shared" ref="D103:E103" si="21">D74/D45-1</f>
+        <v>1.9925484171324115E-2</v>
+      </c>
+      <c r="E103" s="75">
+        <f t="shared" si="21"/>
+        <v>-1.5807609756098406E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B104" s="75">
+        <f t="shared" ref="B104:C104" si="22">B75/B46-1</f>
+        <v>-4.2196894832257081E-3</v>
+      </c>
+      <c r="C104" s="75">
+        <f t="shared" si="22"/>
+        <v>1.2684841224490651E-3</v>
+      </c>
+      <c r="D104" s="75">
+        <f t="shared" ref="D104:E104" si="23">D75/D46-1</f>
+        <v>-9.557899425286398E-3</v>
+      </c>
+      <c r="E104" s="75">
+        <f t="shared" si="23"/>
+        <v>-1.6423159999999437E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B105" s="75">
+        <f t="shared" ref="B105:C105" si="24">B76/B47-1</f>
+        <v>-1.3764895895784779E-4</v>
+      </c>
+      <c r="C105" s="75">
+        <f t="shared" si="24"/>
+        <v>-6.4584415871871137E-4</v>
+      </c>
+      <c r="D105" s="75">
+        <f t="shared" ref="D105:E105" si="25">D76/D47-1</f>
+        <v>6.4085011337868814E-3</v>
+      </c>
+      <c r="E105" s="75">
+        <f t="shared" si="25"/>
+        <v>-2.0898805460751735E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B106" s="75">
+        <f t="shared" ref="B106:C106" si="26">B77/B48-1</f>
+        <v>7.4395854872246758E-3</v>
+      </c>
+      <c r="C106" s="75">
+        <f t="shared" si="26"/>
+        <v>4.9238636578092798E-3</v>
+      </c>
+      <c r="D106" s="75">
+        <f t="shared" ref="D106:E106" si="27">D77/D48-1</f>
+        <v>3.6670958904183593E-4</v>
+      </c>
+      <c r="E106" s="75">
+        <f t="shared" si="27"/>
+        <v>-2.3170816901408098E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B107" s="75">
+        <f t="shared" ref="B107:C107" si="28">B78/B49-1</f>
+        <v>-6.0538697403751396E-3</v>
+      </c>
+      <c r="C107" s="75">
+        <f t="shared" si="28"/>
+        <v>7.4125877007902297E-3</v>
+      </c>
+      <c r="D107" s="75">
+        <f t="shared" ref="D107:E107" si="29">D78/D49-1</f>
+        <v>1.2145652173916055E-3</v>
+      </c>
+      <c r="E107" s="75">
+        <f t="shared" si="29"/>
+        <v>7.2603170731708744E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B108" s="75">
+        <f t="shared" ref="B108:C108" si="30">B79/B50-1</f>
+        <v>9.7722355497624758E-3</v>
+      </c>
+      <c r="C108" s="75">
+        <f t="shared" si="30"/>
+        <v>1.5772745810965549E-2</v>
+      </c>
+      <c r="D108" s="75">
+        <f t="shared" ref="D108:E108" si="31">D79/D50-1</f>
+        <v>8.0076594629994169E-3</v>
+      </c>
+      <c r="E108" s="75">
+        <f t="shared" si="31"/>
+        <v>-1.5978308025994536E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B109" s="75">
+        <f t="shared" ref="B109:C109" si="32">B80/B51-1</f>
+        <v>-3.7200552154765809E-3</v>
+      </c>
+      <c r="C109" s="75">
+        <f t="shared" si="32"/>
+        <v>-3.6248054760357196E-4</v>
+      </c>
+      <c r="D109" s="75">
+        <f t="shared" ref="D109:E109" si="33">D80/D51-1</f>
+        <v>2.5201426940699712E-3</v>
+      </c>
+      <c r="E109" s="75">
+        <f t="shared" si="33"/>
+        <v>1.3772549019666069E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B110" s="75">
+        <f t="shared" ref="B110:C110" si="34">B81/B52-1</f>
+        <v>-4.6212468046755717E-3</v>
+      </c>
+      <c r="C110" s="75">
+        <f t="shared" si="34"/>
+        <v>7.3385546205078089E-3</v>
+      </c>
+      <c r="D110" s="75">
+        <f t="shared" ref="D110:E110" si="35">D81/D52-1</f>
+        <v>2.8534044715491369E-3</v>
+      </c>
+      <c r="E110" s="75">
+        <f t="shared" si="35"/>
+        <v>-7.4461538461537691E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B111" s="75">
+        <f t="shared" ref="B111:C111" si="36">B82/B53-1</f>
+        <v>1.6847989580108802E-3</v>
+      </c>
+      <c r="C111" s="75">
+        <f t="shared" si="36"/>
+        <v>4.0513986288015502E-4</v>
+      </c>
+      <c r="D111" s="75">
+        <f t="shared" ref="D111:E111" si="37">D82/D53-1</f>
+        <v>7.6116735066151797E-3</v>
+      </c>
+      <c r="E111" s="75">
+        <f t="shared" si="37"/>
+        <v>7.1184210526520353E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B112" s="75">
+        <f t="shared" ref="B112:C112" si="38">B83/B54-1</f>
+        <v>-4.8373781709677433E-3</v>
+      </c>
+      <c r="C112" s="75">
+        <f t="shared" si="38"/>
+        <v>1.4281902862480766E-3</v>
+      </c>
+      <c r="D112" s="75">
+        <f t="shared" ref="D112:E112" si="39">D83/D54-1</f>
+        <v>1.006463768122412E-3</v>
+      </c>
+      <c r="E112" s="75">
+        <f t="shared" si="39"/>
+        <v>-8.8038343558268783E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B113" s="75">
+        <f t="shared" ref="B113:C113" si="40">B84/B55-1</f>
+        <v>2.7302604436774125E-3</v>
+      </c>
+      <c r="C113" s="75">
+        <f t="shared" si="40"/>
+        <v>7.2451498881049847E-3</v>
+      </c>
+      <c r="D113" s="75">
+        <f t="shared" ref="D113:E113" si="41">D84/D55-1</f>
+        <v>-1.8584182710407182E-3</v>
+      </c>
+      <c r="E113" s="75">
+        <f t="shared" si="41"/>
+        <v>1.4344729344752949E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B114" s="75">
+        <f t="shared" ref="B114:C114" si="42">B85/B56-1</f>
+        <v>4.232081318722436E-4</v>
+      </c>
+      <c r="C114" s="75">
+        <f t="shared" si="42"/>
+        <v>3.6341992575861237E-3</v>
+      </c>
+      <c r="D114" s="75">
+        <f t="shared" ref="D114:E114" si="43">D85/D56-1</f>
+        <v>1.9922233856932703E-3</v>
+      </c>
+      <c r="E114" s="75">
+        <f t="shared" si="43"/>
+        <v>-1.5712938005348898E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B115" s="75">
+        <f t="shared" ref="B115:C115" si="44">B86/B57-1</f>
+        <v>1.4902529948739307E-3</v>
+      </c>
+      <c r="C115" s="75">
+        <f t="shared" si="44"/>
+        <v>-1.3478311327889125E-3</v>
+      </c>
+      <c r="D115" s="75">
+        <f t="shared" ref="D115:E115" si="45">D86/D57-1</f>
+        <v>2.3748834951486941E-3</v>
+      </c>
+      <c r="E115" s="75">
+        <f t="shared" si="45"/>
+        <v>-3.4289672544043359E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B116" s="75">
+        <f t="shared" ref="B116:C116" si="46">B87/B58-1</f>
+        <v>2.4413202545099377E-3</v>
+      </c>
+      <c r="C116" s="75">
+        <f t="shared" si="46"/>
+        <v>6.0101794107341178E-3</v>
+      </c>
+      <c r="D116" s="75">
+        <f t="shared" ref="D116:E116" si="47">D87/D58-1</f>
+        <v>3.6138466183579521E-3</v>
+      </c>
+      <c r="E116" s="75">
+        <f t="shared" si="47"/>
+        <v>-8.9267707082762993E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B117" s="75">
+        <f t="shared" ref="B117:C117" si="48">B88/B59-1</f>
+        <v>-3.0200760189812437E-3</v>
+      </c>
+      <c r="C117" s="75">
+        <f t="shared" si="48"/>
+        <v>7.1473640179822162E-3</v>
+      </c>
+      <c r="D117" s="75">
+        <f t="shared" ref="D117:E117" si="49">D88/D59-1</f>
+        <v>2.0476918720069293E-4</v>
+      </c>
+      <c r="E117" s="75">
+        <f t="shared" si="49"/>
+        <v>-6.3587301587278988E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B118" s="75">
+        <f t="shared" ref="B118:C118" si="50">B89/B60-1</f>
+        <v>5.7232564121445506E-4</v>
+      </c>
+      <c r="C118" s="75">
+        <f t="shared" si="50"/>
+        <v>3.0093170811593684E-3</v>
+      </c>
+      <c r="D118" s="75">
+        <f t="shared" ref="D118:E118" si="51">D89/D60-1</f>
+        <v>-1.7193136472237747E-4</v>
+      </c>
+      <c r="E118" s="75">
+        <f t="shared" si="51"/>
+        <v>-1.5978308025994536E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B119" s="75">
+        <f t="shared" ref="B119:C119" si="52">B90/B61-1</f>
+        <v>5.9180286764215495E-5</v>
+      </c>
+      <c r="C119" s="75">
+        <f t="shared" si="52"/>
+        <v>4.6662900844762767E-4</v>
+      </c>
+      <c r="D119" s="75">
+        <f t="shared" ref="D119:E119" si="53">D90/D61-1</f>
+        <v>2.4089561270819182E-3</v>
+      </c>
+      <c r="E119" s="75">
+        <f t="shared" si="53"/>
+        <v>-3.5025906735408618E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B120" s="75">
+        <f t="shared" ref="B120:C120" si="54">B91/B62-1</f>
+        <v>-2.9727421226923845E-3</v>
+      </c>
+      <c r="C120" s="75">
+        <f t="shared" si="54"/>
+        <v>-2.7221369885654934E-4</v>
+      </c>
+      <c r="D120" s="75">
+        <f t="shared" ref="D120:E120" si="55">D91/D62-1</f>
+        <v>-1.0154014772457698E-3</v>
+      </c>
+      <c r="E120" s="75">
+        <f t="shared" si="55"/>
+        <v>-1.3452830188640519E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B121" s="75">
+        <f t="shared" ref="B121:C121" si="56">B92/B63-1</f>
+        <v>-2.6548666205786775E-3</v>
+      </c>
+      <c r="C121" s="75">
+        <f t="shared" si="56"/>
+        <v>-2.7180089648386474E-3</v>
+      </c>
+      <c r="D121" s="75">
+        <f t="shared" ref="D121:E121" si="57">D92/D63-1</f>
+        <v>1.4468162247935901E-3</v>
+      </c>
+      <c r="E121" s="75">
+        <f t="shared" si="57"/>
+        <v>-3.0574548907859045E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B122" s="75">
+        <f t="shared" ref="B122:C122" si="58">B93/B64-1</f>
+        <v>-7.4043629095010832E-4</v>
+      </c>
+      <c r="C122" s="75">
+        <f t="shared" si="58"/>
+        <v>-4.2138181505176897E-3</v>
+      </c>
+      <c r="D122" s="75">
+        <f t="shared" ref="D122:E122" si="59">D93/D64-1</f>
+        <v>3.1985117093502602E-4</v>
+      </c>
+      <c r="E122" s="75">
+        <f t="shared" si="59"/>
+        <v>-7.8600556070229644E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B123" s="75">
+        <f t="shared" ref="B123:C123" si="60">B94/B65-1</f>
+        <v>-3.6588542700425331E-3</v>
+      </c>
+      <c r="C123" s="75">
+        <f t="shared" si="60"/>
+        <v>-1.741428260498834E-3</v>
+      </c>
+      <c r="D123" s="75">
+        <f t="shared" ref="D123:E123" si="61">D94/D65-1</f>
+        <v>1.4506350224503528E-3</v>
+      </c>
+      <c r="E123" s="75">
+        <f t="shared" si="61"/>
+        <v>-2.6658181818177695E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B124" s="75">
+        <f t="shared" ref="B124:C124" si="62">B95/B66-1</f>
+        <v>1.3243422341602251E-3</v>
+      </c>
+      <c r="C124" s="75">
+        <f t="shared" si="62"/>
+        <v>2.1252821349309059E-3</v>
+      </c>
+      <c r="D124" s="75">
+        <f t="shared" ref="D124:E124" si="63">D95/D66-1</f>
+        <v>2.7216508338632206E-3</v>
+      </c>
+      <c r="E124" s="75">
+        <f t="shared" si="63"/>
+        <v>-3.2778681120133601E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B125" s="75">
+        <f t="shared" ref="B125:C125" si="64">B96/B67-1</f>
+        <v>-9.6676651251448309E-4</v>
+      </c>
+      <c r="C125" s="75">
+        <f t="shared" si="64"/>
+        <v>4.6038203066138816E-3</v>
+      </c>
+      <c r="D125" s="75">
+        <f t="shared" ref="D125:E125" si="65">D96/D67-1</f>
+        <v>3.9575839066092744E-3</v>
+      </c>
+      <c r="E125" s="75">
+        <f t="shared" si="65"/>
+        <v>2.93753351206405E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D40:E67">
+    <sortCondition ref="D40:D67"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -51224,8 +52931,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -52505,7 +54212,7 @@
         <v>1.5840296090701145E-3</v>
       </c>
       <c r="K44" s="81">
-        <f t="shared" ref="K44:K52" si="7">K33/K21-1</f>
+        <f t="shared" ref="K44" si="7">K33/K21-1</f>
         <v>-4.3717100371725159E-3</v>
       </c>
     </row>
